--- a/2024/shuffle-architecute/Teste10/content/results/metrics_1_8.xlsx
+++ b/2024/shuffle-architecute/Teste10/content/results/metrics_1_8.xlsx
@@ -492,34 +492,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9740540854149631</v>
+        <v>0.9776777730893396</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7774224958349996</v>
+        <v>0.772195095783207</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9838214208142462</v>
+        <v>0.9814756547200689</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9615953570015768</v>
+        <v>0.9915810660925019</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9721395591648077</v>
+        <v>0.9891303817864879</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1088894531130791</v>
+        <v>0.09368161112070084</v>
       </c>
       <c r="H2" t="n">
-        <v>1.48837685585022</v>
+        <v>1.523332476615906</v>
       </c>
       <c r="I2" t="n">
-        <v>0.005058964248746634</v>
+        <v>0.0487525686621666</v>
       </c>
       <c r="J2" t="n">
-        <v>0.08336841315031052</v>
+        <v>0.06915078312158585</v>
       </c>
       <c r="K2" t="n">
-        <v>0.04421368986368179</v>
+        <v>0.05895170941948891</v>
       </c>
     </row>
     <row r="3">
@@ -529,34 +529,34 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9736767690471887</v>
+        <v>0.9773513893249569</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7772677652987954</v>
+        <v>0.7720872444902301</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9845287210903731</v>
+        <v>0.9816227487136286</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9624792256116971</v>
+        <v>0.9916474423478538</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9728137480449444</v>
+        <v>0.9892163398080616</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1104729622602463</v>
+        <v>0.09505137801170349</v>
       </c>
       <c r="H3" t="n">
-        <v>1.489411592483521</v>
+        <v>1.524053573608398</v>
       </c>
       <c r="I3" t="n">
-        <v>0.004837794695049524</v>
+        <v>0.04836544394493103</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0814497172832489</v>
+        <v>0.06860558688640594</v>
       </c>
       <c r="K3" t="n">
-        <v>0.04314377531409264</v>
+        <v>0.05848551541566849</v>
       </c>
     </row>
     <row r="4">
@@ -566,34 +566,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9732880800785495</v>
+        <v>0.9770171298146842</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7771051524797749</v>
+        <v>0.77197646582736</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9852396425082055</v>
+        <v>0.9817714002058396</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9633377931587329</v>
+        <v>0.9917117521498546</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9734710085024199</v>
+        <v>0.9893011064046069</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1121042147278786</v>
+        <v>0.09645418077707291</v>
       </c>
       <c r="H4" t="n">
-        <v>1.490498900413513</v>
+        <v>1.524794459342957</v>
       </c>
       <c r="I4" t="n">
-        <v>0.004615492653101683</v>
+        <v>0.04797422513365746</v>
       </c>
       <c r="J4" t="n">
-        <v>0.07958595454692841</v>
+        <v>0.06807736307382584</v>
       </c>
       <c r="K4" t="n">
-        <v>0.04210072010755539</v>
+        <v>0.0580257847905159</v>
       </c>
     </row>
     <row r="5">
@@ -603,34 +603,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9728876153984422</v>
+        <v>0.9766748762429553</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7769344623850275</v>
+        <v>0.7718626877469332</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9859518122128642</v>
+        <v>0.9819218406507199</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9641687754748021</v>
+        <v>0.9917739457405746</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9741095089214635</v>
+        <v>0.9893846972756548</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1137848794460297</v>
+        <v>0.09789054840803146</v>
       </c>
       <c r="H5" t="n">
-        <v>1.491640329360962</v>
+        <v>1.52555525302887</v>
       </c>
       <c r="I5" t="n">
-        <v>0.004392800852656364</v>
+        <v>0.04757829383015633</v>
       </c>
       <c r="J5" t="n">
-        <v>0.07778206467628479</v>
+        <v>0.06756652891635895</v>
       </c>
       <c r="K5" t="n">
-        <v>0.04108743369579315</v>
+        <v>0.05757242813706398</v>
       </c>
     </row>
     <row r="6">
@@ -640,34 +640,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9724749260984575</v>
+        <v>0.9763244672330396</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7767555083705725</v>
+        <v>0.7717459033291876</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9866622868051159</v>
+        <v>0.9820738493320369</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9649699141335062</v>
+        <v>0.9918339282140111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9747274408671073</v>
+        <v>0.9894670114317339</v>
       </c>
       <c r="G6" t="n">
-        <v>0.1155168414115906</v>
+        <v>0.09936113655567169</v>
       </c>
       <c r="H6" t="n">
-        <v>1.492836952209473</v>
+        <v>1.526336193084717</v>
       </c>
       <c r="I6" t="n">
-        <v>0.004170638974756002</v>
+        <v>0.0471782349050045</v>
       </c>
       <c r="J6" t="n">
-        <v>0.07604295760393143</v>
+        <v>0.06707384437322617</v>
       </c>
       <c r="K6" t="n">
-        <v>0.04010679945349693</v>
+        <v>0.0571259893476963</v>
       </c>
     </row>
     <row r="7">
@@ -677,34 +677,34 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9720496126479563</v>
+        <v>0.9759657337008806</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7765680882864866</v>
+        <v>0.7716260376950177</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9873680855164679</v>
+        <v>0.9822276902378612</v>
       </c>
       <c r="E7" t="n">
-        <v>0.965738650860382</v>
+        <v>0.9918917122091794</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9753227433225842</v>
+        <v>0.9895480890926208</v>
       </c>
       <c r="G7" t="n">
-        <v>0.1173017919063568</v>
+        <v>0.1008666679263115</v>
       </c>
       <c r="H7" t="n">
-        <v>1.49409031867981</v>
+        <v>1.527137756347656</v>
       </c>
       <c r="I7" t="n">
-        <v>0.003949939273297787</v>
+        <v>0.04677335917949677</v>
       </c>
       <c r="J7" t="n">
-        <v>0.07437419146299362</v>
+        <v>0.06659922003746033</v>
       </c>
       <c r="K7" t="n">
-        <v>0.03916206955909729</v>
+        <v>0.05668626725673676</v>
       </c>
     </row>
     <row r="8">
@@ -714,34 +714,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9716111582642003</v>
+        <v>0.9755984907083817</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7763720166429128</v>
+        <v>0.771503060529965</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9880647219125743</v>
+        <v>0.9823833071026388</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9664724172720709</v>
+        <v>0.9919471531817343</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9758932262998335</v>
+        <v>0.9896278246391426</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1191418915987015</v>
+        <v>0.1024079024791718</v>
       </c>
       <c r="H8" t="n">
-        <v>1.495401382446289</v>
+        <v>1.527960062026978</v>
       </c>
       <c r="I8" t="n">
-        <v>0.003732104087248445</v>
+        <v>0.04636380448937416</v>
       </c>
       <c r="J8" t="n">
-        <v>0.07278133928775787</v>
+        <v>0.06614384800195694</v>
       </c>
       <c r="K8" t="n">
-        <v>0.03825673088431358</v>
+        <v>0.0562538169324398</v>
       </c>
     </row>
     <row r="9">
@@ -751,34 +751,34 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9711591465241293</v>
+        <v>0.9752225488789033</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7761671394691645</v>
+        <v>0.7713769004537835</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9887479681946167</v>
+        <v>0.982540570099797</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9671687383785352</v>
+        <v>0.9920003202688977</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9764367850407034</v>
+        <v>0.9897062111515658</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1210388839244843</v>
+        <v>0.1039856597781181</v>
       </c>
       <c r="H9" t="n">
-        <v>1.496771335601807</v>
+        <v>1.528803706169128</v>
       </c>
       <c r="I9" t="n">
-        <v>0.003518456360325217</v>
+        <v>0.04594991356134415</v>
       </c>
       <c r="J9" t="n">
-        <v>0.07126977294683456</v>
+        <v>0.06570714712142944</v>
       </c>
       <c r="K9" t="n">
-        <v>0.03739411756396294</v>
+        <v>0.05582868307828903</v>
       </c>
     </row>
     <row r="10">
@@ -788,34 +788,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9706930554622947</v>
+        <v>0.974837770772669</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7759532324769229</v>
+        <v>0.7712475763111601</v>
       </c>
       <c r="D10" t="n">
-        <v>0.989412389091838</v>
+        <v>0.9826997087038855</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9678246078157954</v>
+        <v>0.992051049677249</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9769508212484184</v>
+        <v>0.9897832651953941</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1229949742555618</v>
+        <v>0.1056004837155342</v>
       </c>
       <c r="H10" t="n">
-        <v>1.498201847076416</v>
+        <v>1.529668569564819</v>
       </c>
       <c r="I10" t="n">
-        <v>0.003310695057734847</v>
+        <v>0.04553109407424927</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0698460191488266</v>
+        <v>0.06529047340154648</v>
       </c>
       <c r="K10" t="n">
-        <v>0.03657835721969604</v>
+        <v>0.05541078001260757</v>
       </c>
     </row>
     <row r="11">
@@ -825,34 +825,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9702122978593301</v>
+        <v>0.9744439637853105</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7757301703434892</v>
+        <v>0.7711149945537514</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9900518876518392</v>
+        <v>0.9828606991391687</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9684371406338705</v>
+        <v>0.9920993938656119</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9774327657380034</v>
+        <v>0.9898589209486419</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1250126212835312</v>
+        <v>0.1072532162070274</v>
       </c>
       <c r="H11" t="n">
-        <v>1.499693393707275</v>
+        <v>1.530555009841919</v>
       </c>
       <c r="I11" t="n">
-        <v>0.003110727062448859</v>
+        <v>0.0451073944568634</v>
       </c>
       <c r="J11" t="n">
-        <v>0.06851633638143539</v>
+        <v>0.06489338725805283</v>
       </c>
       <c r="K11" t="n">
-        <v>0.03581352531909943</v>
+        <v>0.05500045791268349</v>
       </c>
     </row>
     <row r="12">
@@ -862,34 +862,34 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9697164147012746</v>
+        <v>0.9740409110911785</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7754977860254466</v>
+        <v>0.7709791705016952</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9906598749495571</v>
+        <v>0.9830235349474938</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9690033385666228</v>
+        <v>0.9921452265784771</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9778799100029488</v>
+        <v>0.9899331440246076</v>
       </c>
       <c r="G12" t="n">
-        <v>0.127093717455864</v>
+        <v>0.1089447438716888</v>
       </c>
       <c r="H12" t="n">
-        <v>1.50124728679657</v>
+        <v>1.531463384628296</v>
       </c>
       <c r="I12" t="n">
-        <v>0.002920612227171659</v>
+        <v>0.04467884451150894</v>
       </c>
       <c r="J12" t="n">
-        <v>0.06728723645210266</v>
+        <v>0.06451692432165146</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0351039245724678</v>
+        <v>0.05459790676832199</v>
       </c>
     </row>
     <row r="13">
@@ -899,34 +899,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9692047987050715</v>
+        <v>0.9736284787492372</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7752559528730146</v>
+        <v>0.7708399979604705</v>
       </c>
       <c r="D13" t="n">
-        <v>0.991228847334478</v>
+        <v>0.9831882928968392</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9695202353906989</v>
+        <v>0.9921886092144602</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9782894898411553</v>
+        <v>0.9900059701971593</v>
       </c>
       <c r="G13" t="n">
-        <v>0.129240870475769</v>
+        <v>0.1106756329536438</v>
       </c>
       <c r="H13" t="n">
-        <v>1.502864480018616</v>
+        <v>1.532393932342529</v>
       </c>
       <c r="I13" t="n">
-        <v>0.002742697484791279</v>
+        <v>0.04424523189663887</v>
       </c>
       <c r="J13" t="n">
-        <v>0.06616516411304474</v>
+        <v>0.06416059285402298</v>
       </c>
       <c r="K13" t="n">
-        <v>0.03445393219590187</v>
+        <v>0.05420293286442757</v>
       </c>
     </row>
     <row r="14">
@@ -936,34 +936,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9686768425186856</v>
+        <v>0.9732064113830609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7750045156574025</v>
+        <v>0.7706974705155745</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9917503546581639</v>
+        <v>0.9833549223504181</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9699845643509225</v>
+        <v>0.9922293962778348</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9786584405501907</v>
+        <v>0.9900772700305228</v>
       </c>
       <c r="G14" t="n">
-        <v>0.131456583738327</v>
+        <v>0.1124469563364983</v>
       </c>
       <c r="H14" t="n">
-        <v>1.504545927047729</v>
+        <v>1.533347129821777</v>
       </c>
       <c r="I14" t="n">
-        <v>0.002579624531790614</v>
+        <v>0.04380669072270393</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0651572048664093</v>
+        <v>0.0638255774974823</v>
       </c>
       <c r="K14" t="n">
-        <v>0.03386841714382172</v>
+        <v>0.05381623655557632</v>
       </c>
     </row>
     <row r="15">
@@ -973,34 +973,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9681319780658207</v>
+        <v>0.9727745946154891</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7747433422887021</v>
+        <v>0.7705515681932206</v>
       </c>
       <c r="D15" t="n">
-        <v>0.992215034205155</v>
+        <v>0.9835235489159926</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9703932011283275</v>
+        <v>0.9922675767488816</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9789837119455684</v>
+        <v>0.9901471359000543</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1337432563304901</v>
+        <v>0.114259198307991</v>
       </c>
       <c r="H15" t="n">
-        <v>1.506292343139648</v>
+        <v>1.534322738647461</v>
       </c>
       <c r="I15" t="n">
-        <v>0.002434321446344256</v>
+        <v>0.04336290434002876</v>
       </c>
       <c r="J15" t="n">
-        <v>0.06427013874053955</v>
+        <v>0.06351197510957718</v>
       </c>
       <c r="K15" t="n">
-        <v>0.03335222601890564</v>
+        <v>0.05343731865286827</v>
       </c>
     </row>
     <row r="16">
@@ -1010,34 +1010,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9675695822406787</v>
+        <v>0.9723327804745105</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7744723373607008</v>
+        <v>0.7704022491970602</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9926131711315107</v>
+        <v>0.9836941299022949</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9707430019905786</v>
+        <v>0.9923032109773939</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9792621764391649</v>
+        <v>0.9902154866538352</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1361035257577896</v>
+        <v>0.1161134019494057</v>
       </c>
       <c r="H16" t="n">
-        <v>1.508104562759399</v>
+        <v>1.535321235656738</v>
       </c>
       <c r="I16" t="n">
-        <v>0.002309825737029314</v>
+        <v>0.04291396215558052</v>
       </c>
       <c r="J16" t="n">
-        <v>0.06351079791784286</v>
+        <v>0.06321928650140762</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0329103097319603</v>
+        <v>0.05306661128997803</v>
       </c>
     </row>
     <row r="17">
@@ -1047,34 +1047,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9669890248284859</v>
+        <v>0.9718808177037502</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7741914008569786</v>
+        <v>0.7702494399809465</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9929339628593205</v>
+        <v>0.9838667767345847</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9710306891887409</v>
+        <v>0.9923361425187927</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9794905406308901</v>
+        <v>0.9902823159315598</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1385399997234344</v>
+        <v>0.1180101931095123</v>
       </c>
       <c r="H17" t="n">
-        <v>1.50998318195343</v>
+        <v>1.536343097686768</v>
       </c>
       <c r="I17" t="n">
-        <v>0.002209515776485205</v>
+        <v>0.04245959222316742</v>
       </c>
       <c r="J17" t="n">
-        <v>0.06288629025220871</v>
+        <v>0.0629487931728363</v>
       </c>
       <c r="K17" t="n">
-        <v>0.03254790231585503</v>
+        <v>0.05270416289567947</v>
       </c>
     </row>
     <row r="18">
@@ -1084,34 +1084,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9663896489513449</v>
+        <v>0.9714184255903875</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7739004337175719</v>
+        <v>0.770093120758892</v>
       </c>
       <c r="D18" t="n">
-        <v>0.99316594935836</v>
+        <v>0.9840411916577182</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9712531464346547</v>
+        <v>0.9923664055590105</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9796655391728177</v>
+        <v>0.9903475407782615</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1410554498434067</v>
+        <v>0.1199507489800453</v>
       </c>
       <c r="H18" t="n">
-        <v>1.511928796768188</v>
+        <v>1.537388324737549</v>
       </c>
       <c r="I18" t="n">
-        <v>0.002136974828317761</v>
+        <v>0.04200056195259094</v>
       </c>
       <c r="J18" t="n">
-        <v>0.06240338087081909</v>
+        <v>0.06270022690296173</v>
       </c>
       <c r="K18" t="n">
-        <v>0.03227018564939499</v>
+        <v>0.05235041677951813</v>
       </c>
     </row>
     <row r="19">
@@ -1121,34 +1121,34 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9657707774897107</v>
+        <v>0.9709454810649185</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7735993261238734</v>
+        <v>0.7699332479629333</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9932969487155318</v>
+        <v>0.9842178238672139</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9714072023507039</v>
+        <v>0.9923939747420633</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9797838130172477</v>
+        <v>0.9904112533090349</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1436527222394943</v>
+        <v>0.1219356060028076</v>
       </c>
       <c r="H19" t="n">
-        <v>1.513942360877991</v>
+        <v>1.53845739364624</v>
       </c>
       <c r="I19" t="n">
-        <v>0.002096012001857162</v>
+        <v>0.04153570160269737</v>
       </c>
       <c r="J19" t="n">
-        <v>0.06206895411014557</v>
+        <v>0.06247377768158913</v>
       </c>
       <c r="K19" t="n">
-        <v>0.03208248689770699</v>
+        <v>0.0520048663020134</v>
       </c>
     </row>
     <row r="20">
@@ -1158,34 +1158,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.9651318119472875</v>
+        <v>0.9704617540054818</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7732880261050098</v>
+        <v>0.7697697897582264</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9933141400639058</v>
+        <v>0.9843963973986662</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9714898201028769</v>
+        <v>0.9924187901717024</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9798420080571464</v>
+        <v>0.9904733962301505</v>
       </c>
       <c r="G20" t="n">
-        <v>0.146334320306778</v>
+        <v>0.1239656805992126</v>
       </c>
       <c r="H20" t="n">
-        <v>1.516023993492126</v>
+        <v>1.539550423622131</v>
       </c>
       <c r="I20" t="n">
-        <v>0.002090636175125837</v>
+        <v>0.04106573015451431</v>
       </c>
       <c r="J20" t="n">
-        <v>0.06188961490988731</v>
+        <v>0.06226995214819908</v>
       </c>
       <c r="K20" t="n">
-        <v>0.03199013322591782</v>
+        <v>0.05166783183813095</v>
       </c>
     </row>
     <row r="21">
@@ -1195,34 +1195,34 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9644720303007376</v>
+        <v>0.9699669989082969</v>
       </c>
       <c r="C21" t="n">
-        <v>0.7729664675540688</v>
+        <v>0.7696026970773264</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9932042409005521</v>
+        <v>0.9845770085078626</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9714981592937443</v>
+        <v>0.9924408514935962</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9798368833811752</v>
+        <v>0.9905339216367419</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1491032838821411</v>
+        <v>0.1260420829057693</v>
       </c>
       <c r="H21" t="n">
-        <v>1.518174290657043</v>
+        <v>1.540667772293091</v>
       </c>
       <c r="I21" t="n">
-        <v>0.002125001279637218</v>
+        <v>0.04059039428830147</v>
       </c>
       <c r="J21" t="n">
-        <v>0.06187151372432709</v>
+        <v>0.0620887465775013</v>
       </c>
       <c r="K21" t="n">
-        <v>0.03199826553463936</v>
+        <v>0.05133957043290138</v>
       </c>
     </row>
     <row r="22">
@@ -1232,34 +1232,34 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9637907650916484</v>
+        <v>0.9694610092317308</v>
       </c>
       <c r="C22" t="n">
-        <v>0.7726345749147105</v>
+        <v>0.769431944087025</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9929533948431514</v>
+        <v>0.9847596874867484</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9714291834997666</v>
+        <v>0.9924601296950563</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9797649945033899</v>
+        <v>0.9905928391853118</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1519624143838882</v>
+        <v>0.128165602684021</v>
       </c>
       <c r="H22" t="n">
-        <v>1.5203937292099</v>
+        <v>1.541809797286987</v>
       </c>
       <c r="I22" t="n">
-        <v>0.00220343959517777</v>
+        <v>0.04010961577296257</v>
       </c>
       <c r="J22" t="n">
-        <v>0.06202124059200287</v>
+        <v>0.06193039938807487</v>
       </c>
       <c r="K22" t="n">
-        <v>0.03211235255002975</v>
+        <v>0.05102002993226051</v>
       </c>
     </row>
     <row r="23">
@@ -1269,34 +1269,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9630873454999002</v>
+        <v>0.9689436312389729</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7722922869007021</v>
+        <v>0.7692575332399328</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9925472445422971</v>
+        <v>0.9849444259861703</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9712801308969294</v>
+        <v>0.9924766344280811</v>
       </c>
       <c r="F23" t="n">
-        <v>0.979623047982728</v>
+        <v>0.9906501683780248</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1549145132303238</v>
+        <v>0.1303369402885437</v>
       </c>
       <c r="H23" t="n">
-        <v>1.522682428359985</v>
+        <v>1.542975902557373</v>
       </c>
       <c r="I23" t="n">
-        <v>0.002330440795049071</v>
+        <v>0.03962342068552971</v>
       </c>
       <c r="J23" t="n">
-        <v>0.06234480440616608</v>
+        <v>0.06179483607411385</v>
       </c>
       <c r="K23" t="n">
-        <v>0.03233761340379715</v>
+        <v>0.05070910230278969</v>
       </c>
     </row>
     <row r="24">
@@ -1306,34 +1306,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9623611640627999</v>
+        <v>0.9684145542153582</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7719395878390978</v>
+        <v>0.7690793406765807</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9919711814538953</v>
+        <v>0.985131125903574</v>
       </c>
       <c r="E24" t="n">
-        <v>0.971048670365957</v>
+        <v>0.9924903313933517</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9794079828641595</v>
+        <v>0.9907058359412357</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1579621434211731</v>
+        <v>0.1325573623180389</v>
       </c>
       <c r="H24" t="n">
-        <v>1.525041103363037</v>
+        <v>1.544167518615723</v>
       </c>
       <c r="I24" t="n">
-        <v>0.002510573016479611</v>
+        <v>0.03913206234574318</v>
       </c>
       <c r="J24" t="n">
-        <v>0.06284725666046143</v>
+        <v>0.0616823323071003</v>
       </c>
       <c r="K24" t="n">
-        <v>0.03267891705036163</v>
+        <v>0.05040718615055084</v>
       </c>
     </row>
     <row r="25">
@@ -1343,34 +1343,34 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9616115054034242</v>
+        <v>0.9678735644267666</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7715763930076575</v>
+        <v>0.7688973700819169</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9912105479154389</v>
+        <v>0.9853198321267185</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9707321774285071</v>
+        <v>0.9925012146806137</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9791165841339929</v>
+        <v>0.99075987459376</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1611083000898361</v>
+        <v>0.1348277628421783</v>
       </c>
       <c r="H25" t="n">
-        <v>1.527469635009766</v>
+        <v>1.545384407043457</v>
       </c>
       <c r="I25" t="n">
-        <v>0.002748419530689716</v>
+        <v>0.03863542154431343</v>
       </c>
       <c r="J25" t="n">
-        <v>0.06353429704904556</v>
+        <v>0.0615929402410984</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0331413559615612</v>
+        <v>0.05011410638689995</v>
       </c>
     </row>
     <row r="26">
@@ -1380,34 +1380,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9608377690988587</v>
+        <v>0.9673205007081179</v>
       </c>
       <c r="C26" t="n">
-        <v>0.7712026643046177</v>
+        <v>0.7687115591160483</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9902505351393188</v>
+        <v>0.9855105409192192</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9703285594896467</v>
+        <v>0.9925093075340335</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9787459586991119</v>
+        <v>0.9908122628660446</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1643555015325546</v>
+        <v>0.1371488571166992</v>
       </c>
       <c r="H26" t="n">
-        <v>1.529968857765198</v>
+        <v>1.546626925468445</v>
       </c>
       <c r="I26" t="n">
-        <v>0.003048610873520374</v>
+        <v>0.03813351318240166</v>
       </c>
       <c r="J26" t="n">
-        <v>0.06441046297550201</v>
+        <v>0.06152646988630295</v>
       </c>
       <c r="K26" t="n">
-        <v>0.03372953087091446</v>
+        <v>0.04982997849583626</v>
       </c>
     </row>
   </sheetData>
